--- a/Base/Teams/Rams/Target Depth Data.xlsx
+++ b/Base/Teams/Rams/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="C2">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="C2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>7</v>

--- a/Base/Teams/Rams/Target Depth Data.xlsx
+++ b/Base/Teams/Rams/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="C3">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="C3">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>5</v>

--- a/Base/Teams/Rams/Target Depth Data.xlsx
+++ b/Base/Teams/Rams/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="C2">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Rams/Target Depth Data.xlsx
+++ b/Base/Teams/Rams/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="C3">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="C3">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>5</v>

--- a/Base/Teams/Rams/Target Depth Data.xlsx
+++ b/Base/Teams/Rams/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="C3">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="D3">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C3">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Rams/Target Depth Data.xlsx
+++ b/Base/Teams/Rams/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="C2">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="D2">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>472</v>
+        <v>519</v>
       </c>
       <c r="C2">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="D2">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Rams/Target Depth Data.xlsx
+++ b/Base/Teams/Rams/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="C3">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="D3">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E3">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>11</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>502</v>
+        <v>545</v>
       </c>
       <c r="C3">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="D3">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Rams/Target Depth Data.xlsx
+++ b/Base/Teams/Rams/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="C2">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="D2">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="C2">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="D2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>12</v>
